--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.24664566666667</v>
+        <v>48.68074166666667</v>
       </c>
       <c r="H2">
-        <v>153.739937</v>
+        <v>146.042225</v>
       </c>
       <c r="I2">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="J2">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.403666</v>
+        <v>2.526761</v>
       </c>
       <c r="N2">
-        <v>10.210998</v>
+        <v>7.580283</v>
       </c>
       <c r="O2">
-        <v>0.08396157961437772</v>
+        <v>0.09514789101715561</v>
       </c>
       <c r="P2">
-        <v>0.08396157961437774</v>
+        <v>0.09514789101715561</v>
       </c>
       <c r="Q2">
-        <v>174.4264654696807</v>
+        <v>123.0045994944083</v>
       </c>
       <c r="R2">
-        <v>1569.838189227126</v>
+        <v>1107.041395449675</v>
       </c>
       <c r="S2">
-        <v>0.01275159111850179</v>
+        <v>0.01523990721733344</v>
       </c>
       <c r="T2">
-        <v>0.01275159111850179</v>
+        <v>0.01523990721733344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.24664566666667</v>
+        <v>48.68074166666667</v>
       </c>
       <c r="H3">
-        <v>153.739937</v>
+        <v>146.042225</v>
       </c>
       <c r="I3">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="J3">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>39.106684</v>
       </c>
       <c r="O3">
-        <v>0.3215610229401976</v>
+        <v>0.4908680200032562</v>
       </c>
       <c r="P3">
-        <v>0.3215610229401976</v>
+        <v>0.4908680200032562</v>
       </c>
       <c r="Q3">
-        <v>668.0287927154342</v>
+        <v>634.580793747989</v>
       </c>
       <c r="R3">
-        <v>6012.259134438908</v>
+        <v>5711.2271437319</v>
       </c>
       <c r="S3">
-        <v>0.04883679777123217</v>
+        <v>0.07862268938212176</v>
       </c>
       <c r="T3">
-        <v>0.04883679777123217</v>
+        <v>0.07862268938212176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.24664566666667</v>
+        <v>48.68074166666667</v>
       </c>
       <c r="H4">
-        <v>153.739937</v>
+        <v>146.042225</v>
       </c>
       <c r="I4">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="J4">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.962835000000001</v>
+        <v>2.743855666666667</v>
       </c>
       <c r="N4">
-        <v>20.888505</v>
+        <v>8.231567</v>
       </c>
       <c r="O4">
-        <v>0.171759104798848</v>
+        <v>0.1033228231474227</v>
       </c>
       <c r="P4">
-        <v>0.171759104798848</v>
+        <v>0.1033228231474227</v>
       </c>
       <c r="Q4">
-        <v>356.821938080465</v>
+        <v>133.5729288796195</v>
       </c>
       <c r="R4">
-        <v>3211.397442724185</v>
+        <v>1202.156359916575</v>
       </c>
       <c r="S4">
-        <v>0.02608576309943262</v>
+        <v>0.0165492920690776</v>
       </c>
       <c r="T4">
-        <v>0.02608576309943262</v>
+        <v>0.0165492920690776</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.24664566666667</v>
+        <v>48.68074166666667</v>
       </c>
       <c r="H5">
-        <v>153.739937</v>
+        <v>146.042225</v>
       </c>
       <c r="I5">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="J5">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.00674566666667</v>
+        <v>5.865492</v>
       </c>
       <c r="N5">
-        <v>33.02023699999999</v>
+        <v>17.596476</v>
       </c>
       <c r="O5">
-        <v>0.2715142298295545</v>
+        <v>0.2208713818117337</v>
       </c>
       <c r="P5">
-        <v>0.2715142298295545</v>
+        <v>0.2208713818117337</v>
       </c>
       <c r="Q5">
-        <v>564.0587951227853</v>
+        <v>285.5365007999</v>
       </c>
       <c r="R5">
-        <v>5076.529156105068</v>
+        <v>2569.8285071991</v>
       </c>
       <c r="S5">
-        <v>0.04123598504867244</v>
+        <v>0.03537713058892848</v>
       </c>
       <c r="T5">
-        <v>0.04123598504867244</v>
+        <v>0.03537713058892849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.24664566666667</v>
+        <v>48.68074166666667</v>
       </c>
       <c r="H6">
-        <v>153.739937</v>
+        <v>146.042225</v>
       </c>
       <c r="I6">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="J6">
-        <v>0.1518741212000517</v>
+        <v>0.1601707305796784</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.129566999999999</v>
+        <v>2.384473</v>
       </c>
       <c r="N6">
-        <v>18.388701</v>
+        <v>7.153419</v>
       </c>
       <c r="O6">
-        <v>0.1512040628170221</v>
+        <v>0.08978988402043174</v>
       </c>
       <c r="P6">
-        <v>0.1512040628170221</v>
+        <v>0.08978988402043174</v>
       </c>
       <c r="Q6">
-        <v>314.119748139093</v>
+        <v>116.0779141241417</v>
       </c>
       <c r="R6">
-        <v>2827.077733251836</v>
+        <v>1044.701227117275</v>
       </c>
       <c r="S6">
-        <v>0.02296398416221264</v>
+        <v>0.01438171132221715</v>
       </c>
       <c r="T6">
-        <v>0.02296398416221265</v>
+        <v>0.01438171132221715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>407.240364</v>
       </c>
       <c r="I7">
-        <v>0.4022980209734909</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="J7">
-        <v>0.4022980209734908</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.403666</v>
+        <v>2.526761</v>
       </c>
       <c r="N7">
-        <v>10.210998</v>
+        <v>7.580283</v>
       </c>
       <c r="O7">
-        <v>0.08396157961437772</v>
+        <v>0.09514789101715561</v>
       </c>
       <c r="P7">
-        <v>0.08396157961437774</v>
+        <v>0.09514789101715561</v>
       </c>
       <c r="Q7">
-        <v>462.036726924808</v>
+        <v>342.999689793668</v>
       </c>
       <c r="R7">
-        <v>4158.330542323272</v>
+        <v>3086.997208143012</v>
       </c>
       <c r="S7">
-        <v>0.03377757731667235</v>
+        <v>0.04249665028393738</v>
       </c>
       <c r="T7">
-        <v>0.03377757731667235</v>
+        <v>0.04249665028393737</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>407.240364</v>
       </c>
       <c r="I8">
-        <v>0.4022980209734909</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="J8">
-        <v>0.4022980209734908</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>39.106684</v>
       </c>
       <c r="O8">
-        <v>0.3215610229401976</v>
+        <v>0.4908680200032562</v>
       </c>
       <c r="P8">
-        <v>0.3215610229401976</v>
+        <v>0.4908680200032562</v>
       </c>
       <c r="Q8">
         <v>1769.535580776997</v>
@@ -948,10 +948,10 @@
         <v>15925.82022699298</v>
       </c>
       <c r="S8">
-        <v>0.1293633631510528</v>
+        <v>0.2192402412564873</v>
       </c>
       <c r="T8">
-        <v>0.1293633631510528</v>
+        <v>0.2192402412564873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>407.240364</v>
       </c>
       <c r="I9">
-        <v>0.4022980209734909</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="J9">
-        <v>0.4022980209734908</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.962835000000001</v>
+        <v>2.743855666666667</v>
       </c>
       <c r="N9">
-        <v>20.888505</v>
+        <v>8.231567</v>
       </c>
       <c r="O9">
-        <v>0.171759104798848</v>
+        <v>0.1033228231474227</v>
       </c>
       <c r="P9">
-        <v>0.171759104798848</v>
+        <v>0.1033228231474227</v>
       </c>
       <c r="Q9">
-        <v>945.1824866239803</v>
+        <v>372.4695934855987</v>
       </c>
       <c r="R9">
-        <v>8506.642379615821</v>
+        <v>3352.226341370388</v>
       </c>
       <c r="S9">
-        <v>0.06909834794475497</v>
+        <v>0.04614788446391771</v>
       </c>
       <c r="T9">
-        <v>0.06909834794475497</v>
+        <v>0.04614788446391771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>407.240364</v>
       </c>
       <c r="I10">
-        <v>0.4022980209734909</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="J10">
-        <v>0.4022980209734908</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.00674566666667</v>
+        <v>5.865492</v>
       </c>
       <c r="N10">
-        <v>33.02023699999999</v>
+        <v>17.596476</v>
       </c>
       <c r="O10">
-        <v>0.2715142298295545</v>
+        <v>0.2208713818117337</v>
       </c>
       <c r="P10">
-        <v>0.2715142298295545</v>
+        <v>0.2208713818117337</v>
       </c>
       <c r="Q10">
-        <v>1494.130370582919</v>
+        <v>796.221699039696</v>
       </c>
       <c r="R10">
-        <v>13447.17333524627</v>
+        <v>7165.995291357263</v>
       </c>
       <c r="S10">
-        <v>0.1092296373265713</v>
+        <v>0.09864952097457273</v>
       </c>
       <c r="T10">
-        <v>0.1092296373265713</v>
+        <v>0.09864952097457273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>407.240364</v>
       </c>
       <c r="I11">
-        <v>0.4022980209734909</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="J11">
-        <v>0.4022980209734908</v>
+        <v>0.4466378584920503</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.129566999999999</v>
+        <v>2.384473</v>
       </c>
       <c r="N11">
-        <v>18.388701</v>
+        <v>7.153419</v>
       </c>
       <c r="O11">
-        <v>0.1512040628170221</v>
+        <v>0.08978988402043174</v>
       </c>
       <c r="P11">
-        <v>0.1512040628170221</v>
+        <v>0.08978988402043174</v>
       </c>
       <c r="Q11">
-        <v>832.0690320807959</v>
+        <v>323.6845508227241</v>
       </c>
       <c r="R11">
-        <v>7488.621288727163</v>
+        <v>2913.160957404516</v>
       </c>
       <c r="S11">
-        <v>0.0608290952344394</v>
+        <v>0.0401035615131352</v>
       </c>
       <c r="T11">
-        <v>0.0608290952344394</v>
+        <v>0.0401035615131352</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>67.72999566666668</v>
+        <v>44.00775933333333</v>
       </c>
       <c r="H12">
-        <v>203.189987</v>
+        <v>132.023278</v>
       </c>
       <c r="I12">
-        <v>0.2007240364114038</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="J12">
-        <v>0.2007240364114038</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.403666</v>
+        <v>2.526761</v>
       </c>
       <c r="N12">
-        <v>10.210998</v>
+        <v>7.580283</v>
       </c>
       <c r="O12">
-        <v>0.08396157961437772</v>
+        <v>0.09514789101715561</v>
       </c>
       <c r="P12">
-        <v>0.08396157961437774</v>
+        <v>0.09514789101715561</v>
       </c>
       <c r="Q12">
-        <v>230.5302834307807</v>
+        <v>111.1970899808527</v>
       </c>
       <c r="R12">
-        <v>2074.772550877026</v>
+        <v>1000.773809827674</v>
       </c>
       <c r="S12">
-        <v>0.01685310716367534</v>
+        <v>0.0137769916012182</v>
       </c>
       <c r="T12">
-        <v>0.01685310716367534</v>
+        <v>0.0137769916012182</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>67.72999566666668</v>
+        <v>44.00775933333333</v>
       </c>
       <c r="H13">
-        <v>203.189987</v>
+        <v>132.023278</v>
       </c>
       <c r="I13">
-        <v>0.2007240364114038</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="J13">
-        <v>0.2007240364114038</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>39.106684</v>
       </c>
       <c r="O13">
-        <v>0.3215610229401976</v>
+        <v>0.4908680200032562</v>
       </c>
       <c r="P13">
-        <v>0.3215610229401976</v>
+        <v>0.4908680200032562</v>
       </c>
       <c r="Q13">
-        <v>882.8985126192345</v>
+        <v>573.6658459322391</v>
       </c>
       <c r="R13">
-        <v>7946.086613573109</v>
+        <v>5162.992613390153</v>
       </c>
       <c r="S13">
-        <v>0.06454502647713649</v>
+        <v>0.07107550694604597</v>
       </c>
       <c r="T13">
-        <v>0.06454502647713647</v>
+        <v>0.07107550694604597</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>67.72999566666668</v>
+        <v>44.00775933333333</v>
       </c>
       <c r="H14">
-        <v>203.189987</v>
+        <v>132.023278</v>
       </c>
       <c r="I14">
-        <v>0.2007240364114038</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="J14">
-        <v>0.2007240364114038</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.962835000000001</v>
+        <v>2.743855666666667</v>
       </c>
       <c r="N14">
-        <v>20.888505</v>
+        <v>8.231567</v>
       </c>
       <c r="O14">
-        <v>0.171759104798848</v>
+        <v>0.1033228231474227</v>
       </c>
       <c r="P14">
-        <v>0.171759104798848</v>
+        <v>0.1033228231474227</v>
       </c>
       <c r="Q14">
-        <v>471.5927843777152</v>
+        <v>120.7509398240695</v>
       </c>
       <c r="R14">
-        <v>4244.335059399436</v>
+        <v>1086.758458416626</v>
       </c>
       <c r="S14">
-        <v>0.0344761808056341</v>
+        <v>0.01496068542874519</v>
       </c>
       <c r="T14">
-        <v>0.0344761808056341</v>
+        <v>0.01496068542874519</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>67.72999566666668</v>
+        <v>44.00775933333333</v>
       </c>
       <c r="H15">
-        <v>203.189987</v>
+        <v>132.023278</v>
       </c>
       <c r="I15">
-        <v>0.2007240364114038</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="J15">
-        <v>0.2007240364114038</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.00674566666667</v>
+        <v>5.865492</v>
       </c>
       <c r="N15">
-        <v>33.02023699999999</v>
+        <v>17.596476</v>
       </c>
       <c r="O15">
-        <v>0.2715142298295545</v>
+        <v>0.2208713818117337</v>
       </c>
       <c r="P15">
-        <v>0.2715142298295545</v>
+        <v>0.2208713818117337</v>
       </c>
       <c r="Q15">
-        <v>745.4868363074355</v>
+        <v>258.127160307592</v>
       </c>
       <c r="R15">
-        <v>6709.381526766919</v>
+        <v>2323.144442768328</v>
       </c>
       <c r="S15">
-        <v>0.05449943215452176</v>
+        <v>0.03198119411412972</v>
       </c>
       <c r="T15">
-        <v>0.05449943215452175</v>
+        <v>0.03198119411412972</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>67.72999566666668</v>
+        <v>44.00775933333333</v>
       </c>
       <c r="H16">
-        <v>203.189987</v>
+        <v>132.023278</v>
       </c>
       <c r="I16">
-        <v>0.2007240364114038</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="J16">
-        <v>0.2007240364114038</v>
+        <v>0.1447955540993982</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.129566999999999</v>
+        <v>2.384473</v>
       </c>
       <c r="N16">
-        <v>18.388701</v>
+        <v>7.153419</v>
       </c>
       <c r="O16">
-        <v>0.1512040628170221</v>
+        <v>0.08978988402043174</v>
       </c>
       <c r="P16">
-        <v>0.1512040628170221</v>
+        <v>0.08978988402043174</v>
       </c>
       <c r="Q16">
-        <v>415.155546348543</v>
+        <v>104.9353139208313</v>
       </c>
       <c r="R16">
-        <v>3736.399917136887</v>
+        <v>944.4178252874821</v>
       </c>
       <c r="S16">
-        <v>0.03035028981043614</v>
+        <v>0.01300117600925911</v>
       </c>
       <c r="T16">
-        <v>0.03035028981043614</v>
+        <v>0.01300117600925911</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.08290733333334</v>
+        <v>27.64718166666666</v>
       </c>
       <c r="H17">
-        <v>87.24872200000001</v>
+        <v>82.94154499999999</v>
       </c>
       <c r="I17">
-        <v>0.08618985566240746</v>
+        <v>0.09096552629253131</v>
       </c>
       <c r="J17">
-        <v>0.08618985566240746</v>
+        <v>0.0909655262925313</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.403666</v>
+        <v>2.526761</v>
       </c>
       <c r="N17">
-        <v>10.210998</v>
+        <v>7.580283</v>
       </c>
       <c r="O17">
-        <v>0.08396157961437772</v>
+        <v>0.09514789101715561</v>
       </c>
       <c r="P17">
-        <v>0.08396157961437774</v>
+        <v>0.09514789101715561</v>
       </c>
       <c r="Q17">
-        <v>98.98850287161734</v>
+        <v>69.85782039524832</v>
       </c>
       <c r="R17">
-        <v>890.8965258445562</v>
+        <v>628.7203835572349</v>
       </c>
       <c r="S17">
-        <v>0.007236636428150948</v>
+        <v>0.008655177981999973</v>
       </c>
       <c r="T17">
-        <v>0.00723663642815095</v>
+        <v>0.008655177981999971</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29.08290733333334</v>
+        <v>27.64718166666666</v>
       </c>
       <c r="H18">
-        <v>87.24872200000001</v>
+        <v>82.94154499999999</v>
       </c>
       <c r="I18">
-        <v>0.08618985566240746</v>
+        <v>0.09096552629253131</v>
       </c>
       <c r="J18">
-        <v>0.08618985566240746</v>
+        <v>0.0909655262925313</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>39.106684</v>
       </c>
       <c r="O18">
-        <v>0.3215610229401976</v>
+        <v>0.4908680200032562</v>
       </c>
       <c r="P18">
-        <v>0.3215610229401976</v>
+        <v>0.4908680200032562</v>
       </c>
       <c r="Q18">
-        <v>379.1120222953165</v>
+        <v>360.3965323096422</v>
       </c>
       <c r="R18">
-        <v>3412.008200657849</v>
+        <v>3243.56879078678</v>
       </c>
       <c r="S18">
-        <v>0.02771529815387173</v>
+        <v>0.04465206777976899</v>
       </c>
       <c r="T18">
-        <v>0.02771529815387173</v>
+        <v>0.04465206777976898</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>29.08290733333334</v>
+        <v>27.64718166666666</v>
       </c>
       <c r="H19">
-        <v>87.24872200000001</v>
+        <v>82.94154499999999</v>
       </c>
       <c r="I19">
-        <v>0.08618985566240746</v>
+        <v>0.09096552629253131</v>
       </c>
       <c r="J19">
-        <v>0.08618985566240746</v>
+        <v>0.0909655262925313</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.962835000000001</v>
+        <v>2.743855666666667</v>
       </c>
       <c r="N19">
-        <v>20.888505</v>
+        <v>8.231567</v>
       </c>
       <c r="O19">
-        <v>0.171759104798848</v>
+        <v>0.1033228231474227</v>
       </c>
       <c r="P19">
-        <v>0.171759104798848</v>
+        <v>0.1033228231474227</v>
       </c>
       <c r="Q19">
-        <v>202.4994850822901</v>
+        <v>75.85987608344611</v>
       </c>
       <c r="R19">
-        <v>1822.49536574061</v>
+        <v>682.7388847510149</v>
       </c>
       <c r="S19">
-        <v>0.01480389245131703</v>
+        <v>0.00939881498563544</v>
       </c>
       <c r="T19">
-        <v>0.01480389245131703</v>
+        <v>0.00939881498563544</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>29.08290733333334</v>
+        <v>27.64718166666666</v>
       </c>
       <c r="H20">
-        <v>87.24872200000001</v>
+        <v>82.94154499999999</v>
       </c>
       <c r="I20">
-        <v>0.08618985566240746</v>
+        <v>0.09096552629253131</v>
       </c>
       <c r="J20">
-        <v>0.08618985566240746</v>
+        <v>0.0909655262925313</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.00674566666667</v>
+        <v>5.865492</v>
       </c>
       <c r="N20">
-        <v>33.02023699999999</v>
+        <v>17.596476</v>
       </c>
       <c r="O20">
-        <v>0.2715142298295545</v>
+        <v>0.2208713818117337</v>
       </c>
       <c r="P20">
-        <v>0.2715142298295545</v>
+        <v>0.2208713818117337</v>
       </c>
       <c r="Q20">
-        <v>320.1081642652349</v>
+        <v>162.16432288838</v>
       </c>
       <c r="R20">
-        <v>2880.973478387114</v>
+        <v>1459.47890599542</v>
       </c>
       <c r="S20">
-        <v>0.02340177227929903</v>
+        <v>0.02009168148946298</v>
       </c>
       <c r="T20">
-        <v>0.02340177227929903</v>
+        <v>0.02009168148946298</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>29.08290733333334</v>
+        <v>27.64718166666666</v>
       </c>
       <c r="H21">
-        <v>87.24872200000001</v>
+        <v>82.94154499999999</v>
       </c>
       <c r="I21">
-        <v>0.08618985566240746</v>
+        <v>0.09096552629253131</v>
       </c>
       <c r="J21">
-        <v>0.08618985566240746</v>
+        <v>0.0909655262925313</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.129566999999999</v>
+        <v>2.384473</v>
       </c>
       <c r="N21">
-        <v>18.388701</v>
+        <v>7.153419</v>
       </c>
       <c r="O21">
-        <v>0.1512040628170221</v>
+        <v>0.08978988402043174</v>
       </c>
       <c r="P21">
-        <v>0.1512040628170221</v>
+        <v>0.08978988402043174</v>
       </c>
       <c r="Q21">
-        <v>178.265629054458</v>
+        <v>65.92395821026167</v>
       </c>
       <c r="R21">
-        <v>1604.390661490122</v>
+        <v>593.315623892355</v>
       </c>
       <c r="S21">
-        <v>0.01303225634976873</v>
+        <v>0.008167784055663921</v>
       </c>
       <c r="T21">
-        <v>0.01303225634976873</v>
+        <v>0.008167784055663919</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.62208933333334</v>
+        <v>47.847851</v>
       </c>
       <c r="H22">
-        <v>160.866268</v>
+        <v>143.543553</v>
       </c>
       <c r="I22">
-        <v>0.1589139657526463</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="J22">
-        <v>0.1589139657526463</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.403666</v>
+        <v>2.526761</v>
       </c>
       <c r="N22">
-        <v>10.210998</v>
+        <v>7.580283</v>
       </c>
       <c r="O22">
-        <v>0.08396157961437772</v>
+        <v>0.09514789101715561</v>
       </c>
       <c r="P22">
-        <v>0.08396157961437774</v>
+        <v>0.09514789101715561</v>
       </c>
       <c r="Q22">
-        <v>182.5116823128294</v>
+        <v>120.900083840611</v>
       </c>
       <c r="R22">
-        <v>1642.605140815464</v>
+        <v>1088.100754565499</v>
       </c>
       <c r="S22">
-        <v>0.01334266758737731</v>
+        <v>0.01497916393266663</v>
       </c>
       <c r="T22">
-        <v>0.01334266758737731</v>
+        <v>0.01497916393266663</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.62208933333334</v>
+        <v>47.847851</v>
       </c>
       <c r="H23">
-        <v>160.866268</v>
+        <v>143.543553</v>
       </c>
       <c r="I23">
-        <v>0.1589139657526463</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="J23">
-        <v>0.1589139657526463</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>39.106684</v>
       </c>
       <c r="O23">
-        <v>0.3215610229401976</v>
+        <v>0.4908680200032562</v>
       </c>
       <c r="P23">
-        <v>0.3215610229401976</v>
+        <v>0.4908680200032562</v>
       </c>
       <c r="Q23">
-        <v>698.9940343261459</v>
+        <v>623.7235963786947</v>
       </c>
       <c r="R23">
-        <v>6290.946308935313</v>
+        <v>5613.512367408252</v>
       </c>
       <c r="S23">
-        <v>0.05110053738690448</v>
+        <v>0.07727751463883223</v>
       </c>
       <c r="T23">
-        <v>0.05110053738690447</v>
+        <v>0.07727751463883223</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.62208933333334</v>
+        <v>47.847851</v>
       </c>
       <c r="H24">
-        <v>160.866268</v>
+        <v>143.543553</v>
       </c>
       <c r="I24">
-        <v>0.1589139657526463</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="J24">
-        <v>0.1589139657526463</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.962835000000001</v>
+        <v>2.743855666666667</v>
       </c>
       <c r="N24">
-        <v>20.888505</v>
+        <v>8.231567</v>
       </c>
       <c r="O24">
-        <v>0.171759104798848</v>
+        <v>0.1033228231474227</v>
       </c>
       <c r="P24">
-        <v>0.171759104798848</v>
+        <v>0.1033228231474227</v>
       </c>
       <c r="Q24">
-        <v>373.3617603832601</v>
+        <v>131.2875971041723</v>
       </c>
       <c r="R24">
-        <v>3360.255843449341</v>
+        <v>1181.588373937551</v>
       </c>
       <c r="S24">
-        <v>0.02729492049770932</v>
+        <v>0.01626614620004673</v>
       </c>
       <c r="T24">
-        <v>0.02729492049770932</v>
+        <v>0.01626614620004673</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.62208933333334</v>
+        <v>47.847851</v>
       </c>
       <c r="H25">
-        <v>160.866268</v>
+        <v>143.543553</v>
       </c>
       <c r="I25">
-        <v>0.1589139657526463</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="J25">
-        <v>0.1589139657526463</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.00674566666667</v>
+        <v>5.865492</v>
       </c>
       <c r="N25">
-        <v>33.02023699999999</v>
+        <v>17.596476</v>
       </c>
       <c r="O25">
-        <v>0.2715142298295545</v>
+        <v>0.2208713818117337</v>
       </c>
       <c r="P25">
-        <v>0.2715142298295545</v>
+        <v>0.2208713818117337</v>
       </c>
       <c r="Q25">
-        <v>590.2046994072796</v>
+        <v>280.651187257692</v>
       </c>
       <c r="R25">
-        <v>5311.842294665516</v>
+        <v>2525.860685319228</v>
       </c>
       <c r="S25">
-        <v>0.04314740302048996</v>
+        <v>0.03477185464463977</v>
       </c>
       <c r="T25">
-        <v>0.04314740302048995</v>
+        <v>0.03477185464463978</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>53.62208933333334</v>
+        <v>47.847851</v>
       </c>
       <c r="H26">
-        <v>160.866268</v>
+        <v>143.543553</v>
       </c>
       <c r="I26">
-        <v>0.1589139657526463</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="J26">
-        <v>0.1589139657526463</v>
+        <v>0.1574303305363417</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.129566999999999</v>
+        <v>2.384473</v>
       </c>
       <c r="N26">
-        <v>18.388701</v>
+        <v>7.153419</v>
       </c>
       <c r="O26">
-        <v>0.1512040628170221</v>
+        <v>0.08978988402043174</v>
       </c>
       <c r="P26">
-        <v>0.1512040628170221</v>
+        <v>0.08978988402043174</v>
       </c>
       <c r="Q26">
-        <v>328.680189248652</v>
+        <v>114.091908817523</v>
       </c>
       <c r="R26">
-        <v>2958.121703237868</v>
+        <v>1026.827179357707</v>
       </c>
       <c r="S26">
-        <v>0.02402843726016523</v>
+        <v>0.01413565112015636</v>
       </c>
       <c r="T26">
-        <v>0.02402843726016523</v>
+        <v>0.01413565112015636</v>
       </c>
     </row>
   </sheetData>
